--- a/cm/SignalFlow.xlsx
+++ b/cm/SignalFlow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhoutinglin\Documents\1_MyDoc\Doc2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3B7E6E-6936-4ED7-AEF3-11EA1F572668}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE420CA-5C14-4FBA-B9D7-BF611CEAF2C0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440" xr2:uid="{7DC9A8E4-0A0D-47CF-8FE8-FB326EEBEC26}"/>
   </bookViews>
@@ -30,24 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>InjSys_qTot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>InjSys_qOfsTot</t>
-  </si>
-  <si>
-    <t>InjSys_qInrCmb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>InjSys_qOutrCmb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Goto</t>
@@ -467,11 +452,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E094B8C-3C53-43C9-AC01-28A4413CB231}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -486,30 +469,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
